--- a/src/data/measuresoftgram-siged-dataset-23-03-2021-08-05-2021-excel.xlsx
+++ b/src/data/measuresoftgram-siged-dataset-23-03-2021-08-05-2021-excel.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,44 +422,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>em1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>em2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>em3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modifiability</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Maintainability</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SQC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>repository</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>version</t>
+      <c r="A1" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.4146320778714546</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.4146320778714546</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.4146320778714546</v>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Users</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>v0.1</t>
         </is>
       </c>
     </row>
@@ -501,7 +477,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>v0.1</t>
+          <t>v0.2</t>
         </is>
       </c>
     </row>
@@ -531,7 +507,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>v0.2</t>
+          <t>v0.3</t>
         </is>
       </c>
     </row>
@@ -561,13 +537,13 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>v0.3</t>
+          <t>v0.3.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -576,13 +552,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4146320778714546</v>
+        <v>0.42175</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4146320778714546</v>
+        <v>0.42175</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4146320778714546</v>
+        <v>0.42175</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -591,13 +567,13 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>v0.3.0</t>
+          <t>v0.3.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -606,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.42175</v>
+        <v>0.4274390982538324</v>
       </c>
       <c r="E6" t="n">
-        <v>0.42175</v>
+        <v>0.4274390982538324</v>
       </c>
       <c r="F6" t="n">
-        <v>0.42175</v>
+        <v>0.4274390982538324</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -621,7 +597,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>v0.3.1</t>
+          <t>v0.3.2</t>
         </is>
       </c>
     </row>
@@ -651,13 +627,13 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>v0.3.2</t>
+          <t>v1.0.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -666,13 +642,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4274390982538324</v>
+        <v>0.399923434820977</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4274390982538324</v>
+        <v>0.399923434820977</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4274390982538324</v>
+        <v>0.399923434820977</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -681,7 +657,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>v1.0.0</t>
+          <t>v1.0.1</t>
         </is>
       </c>
     </row>
@@ -711,58 +687,58 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>v1.0.1</t>
+          <t>v1.0.2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.75</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D10" t="n">
-        <v>0.399923434820977</v>
+        <v>0.3578667419585117</v>
       </c>
       <c r="E10" t="n">
-        <v>0.399923434820977</v>
+        <v>0.3578667419585117</v>
       </c>
       <c r="F10" t="n">
-        <v>0.399923434820977</v>
+        <v>0.3578667419585117</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Users</t>
+          <t>Sectors</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>v1.0.2</t>
+          <t>v0.1.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3578667419585117</v>
+        <v>0.3711210657347529</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3578667419585117</v>
+        <v>0.3711210657347529</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3578667419585117</v>
+        <v>0.3711210657347529</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -771,28 +747,28 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>v0.1.0</t>
+          <t>v0.1.1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3711210657347529</v>
+        <v>0.3578667419585117</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3711210657347529</v>
+        <v>0.3578667419585117</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3711210657347529</v>
+        <v>0.3578667419585117</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -801,7 +777,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>v0.1.1</t>
+          <t>v1.0</t>
         </is>
       </c>
     </row>
@@ -831,7 +807,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>v1.0</t>
+          <t>v1.0.0</t>
         </is>
       </c>
     </row>
@@ -843,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3578667419585117</v>
+        <v>0.42175</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3578667419585117</v>
+        <v>0.42175</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3578667419585117</v>
+        <v>0.42175</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -861,7 +837,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>v1.0.0</t>
+          <t>v1.0.1</t>
         </is>
       </c>
     </row>
@@ -891,13 +867,13 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>v1.0.1</t>
+          <t>v1.1.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -906,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.42175</v>
+        <v>0.4055043334471833</v>
       </c>
       <c r="E16" t="n">
-        <v>0.42175</v>
+        <v>0.4055043334471833</v>
       </c>
       <c r="F16" t="n">
-        <v>0.42175</v>
+        <v>0.4055043334471833</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -921,7 +897,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>v1.1.0</t>
+          <t>v1.1.1</t>
         </is>
       </c>
     </row>
@@ -933,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.9710144927536232</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4055043334471833</v>
+        <v>0.3974041504176398</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4055043334471833</v>
+        <v>0.3974041504176398</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4055043334471833</v>
+        <v>0.3974041504176398</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sectors</t>
+          <t>Frontend</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>v1.1.1</t>
+          <t>v0.1</t>
         </is>
       </c>
     </row>
@@ -981,7 +957,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>v0.1</t>
+          <t>v0.10.0</t>
         </is>
       </c>
     </row>
@@ -1011,28 +987,28 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>v0.10.0</t>
+          <t>v0.10.1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6495726495726496</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9710144927536232</v>
+        <v>0.9658119658119658</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3974041504176398</v>
+        <v>0.3927106103836845</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3974041504176398</v>
+        <v>0.3927106103836845</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3974041504176398</v>
+        <v>0.3927106103836845</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1041,28 +1017,28 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>v0.10.1</t>
+          <t>v0.10.2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6495726495726496</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9658119658119658</v>
+        <v>0.9831932773109243</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3927106103836845</v>
+        <v>0.3971234035499026</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3927106103836845</v>
+        <v>0.3971234035499026</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3927106103836845</v>
+        <v>0.3971234035499026</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1071,7 +1047,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>v0.10.2</t>
+          <t>v0.11.0</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1077,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>v0.11.0</t>
+          <t>v0.11.1</t>
         </is>
       </c>
     </row>
@@ -1131,28 +1107,28 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>v0.11.1</t>
+          <t>v0.12.0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.65</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9831932773109243</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3971234035499026</v>
+        <v>0.3977092312788885</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3971234035499026</v>
+        <v>0.3977092312788885</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3971234035499026</v>
+        <v>0.3977092312788885</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1161,7 +1137,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>v0.12.0</t>
+          <t>v0.13.0</t>
         </is>
       </c>
     </row>
@@ -1191,28 +1167,28 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>v0.13.0</t>
+          <t>v0.14.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.65</v>
+        <v>0.6611570247933884</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.9752066115702479</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3977092312788885</v>
+        <v>0.3975248670968713</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3977092312788885</v>
+        <v>0.3975248670968713</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3977092312788885</v>
+        <v>0.3975248670968713</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1221,28 +1197,28 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>v0.14.0</t>
+          <t>v0.14.1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.6611570247933884</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9752066115702479</v>
+        <v>0.9710144927536232</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3975248670968713</v>
+        <v>0.3974041504176398</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3975248670968713</v>
+        <v>0.3974041504176398</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3975248670968713</v>
+        <v>0.3974041504176398</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1251,7 +1227,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>v0.14.1</t>
+          <t>v0.2</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1257,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>v0.2</t>
+          <t>v0.3</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1287,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>v0.3</t>
+          <t>v0.4</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1317,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>v0.4</t>
+          <t>v0.5</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1347,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>v0.5</t>
+          <t>v0.6</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1377,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>v0.6</t>
+          <t>v0.7</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1407,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>v0.7</t>
+          <t>v0.8</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1437,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>v0.8</t>
+          <t>v0.9</t>
         </is>
       </c>
     </row>
@@ -1491,28 +1467,28 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>v0.9</t>
+          <t>v0.9.0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6611570247933884</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9710144927536232</v>
+        <v>0.9752066115702479</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3974041504176398</v>
+        <v>0.3975248670968713</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3974041504176398</v>
+        <v>0.3975248670968713</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3974041504176398</v>
+        <v>0.3975248670968713</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1521,13 +1497,13 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>v0.9.0</t>
+          <t>v1.0.0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.6611570247933884</v>
+        <v>0.6694214876033058</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -1536,13 +1512,13 @@
         <v>0.9752066115702479</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3975248670968713</v>
+        <v>0.3990962913608953</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3975248670968713</v>
+        <v>0.3990962913608953</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3975248670968713</v>
+        <v>0.3990962913608953</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1551,7 +1527,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>v1.0.0</t>
+          <t>v1.1.0</t>
         </is>
       </c>
     </row>
@@ -1581,28 +1557,28 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>v1.1.0</t>
+          <t>v1.2.0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6694214876033058</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9752066115702479</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3990962913608953</v>
+        <v>0.3988450896721126</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3990962913608953</v>
+        <v>0.3988450896721126</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3990962913608953</v>
+        <v>0.3988450896721126</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1611,7 +1587,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>v1.2.0</t>
+          <t>v1.3.0</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1617,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>v1.3.0</t>
+          <t>v1.3.1</t>
         </is>
       </c>
     </row>
@@ -1671,28 +1647,28 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>v1.3.1</t>
+          <t>v1.3.2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6692913385826772</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9763779527559056</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3988450896721126</v>
+        <v>0.3993973554639729</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3988450896721126</v>
+        <v>0.3993973554639729</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3988450896721126</v>
+        <v>0.3993973554639729</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1701,28 +1677,28 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>v1.3.2</t>
+          <t>v1.3.3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6692913385826772</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9763779527559056</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3993973554639729</v>
+        <v>0.3989993811306725</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3993973554639729</v>
+        <v>0.3989993811306725</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3993973554639729</v>
+        <v>0.3989993811306725</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1731,7 +1707,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>v1.3.3</t>
+          <t>v1.4.0</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1737,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>v1.4.0</t>
+          <t>v1.4.1</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1767,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>v1.4.1</t>
+          <t>v1.4.2</t>
         </is>
       </c>
     </row>
@@ -1821,28 +1797,28 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>v1.4.2</t>
+          <t>v1.4.3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.9769230769230769</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3989993811306725</v>
+        <v>0.3980765015976958</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3989993811306725</v>
+        <v>0.3980765015976958</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3989993811306725</v>
+        <v>0.3980765015976958</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1851,28 +1827,28 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>v1.4.3</t>
+          <t>v1.5.0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6615384615384615</v>
+        <v>0.6641221374045801</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9769230769230769</v>
+        <v>0.9923664122137404</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3980765015976958</v>
+        <v>0.4028857373228177</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3980765015976958</v>
+        <v>0.4028857373228177</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3980765015976958</v>
+        <v>0.4028857373228177</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1881,28 +1857,28 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>v1.5.0</t>
+          <t>v1.5.1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.6641221374045801</v>
+        <v>0.6616541353383458</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.005864661654135338</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9923664122137404</v>
+        <v>0.9924812030075187</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4028857373228177</v>
+        <v>0.4024602930439879</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4028857373228177</v>
+        <v>0.4024602930439879</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4028857373228177</v>
+        <v>0.4024602930439879</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1911,28 +1887,28 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>v1.5.1</t>
+          <t>v1.6.0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.6616541353383458</v>
+        <v>0.6594202898550725</v>
       </c>
       <c r="B50" t="n">
-        <v>0.005864661654135338</v>
+        <v>0.005652173913043478</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9924812030075187</v>
+        <v>0.9927536231884058</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4024602930439879</v>
+        <v>0.402118922830264</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4024602930439879</v>
+        <v>0.402118922830264</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4024602930439879</v>
+        <v>0.402118922830264</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1941,7 +1917,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>v1.6.0</t>
+          <t>v1.7.0</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1947,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>v1.7.0</t>
+          <t>v1.7.1</t>
         </is>
       </c>
     </row>
@@ -2001,7 +1977,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>v1.7.1</t>
+          <t>v1.7.2</t>
         </is>
       </c>
     </row>
@@ -2031,28 +2007,28 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>v1.7.2</t>
+          <t>v1.8.0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.6594202898550725</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005652173913043478</v>
+        <v>0.006076388888888887</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9927536231884058</v>
+        <v>0.9930555555555556</v>
       </c>
       <c r="D54" t="n">
-        <v>0.402118922830264</v>
+        <v>0.4009690737811186</v>
       </c>
       <c r="E54" t="n">
-        <v>0.402118922830264</v>
+        <v>0.4009690737811186</v>
       </c>
       <c r="F54" t="n">
-        <v>0.402118922830264</v>
+        <v>0.4009690737811186</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2061,7 +2037,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>v1.8.0</t>
+          <t>v1.9.0</t>
         </is>
       </c>
     </row>
@@ -2091,37 +2067,37 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>v1.9.0</t>
+          <t>v1.9.1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.6527777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="B56" t="n">
-        <v>0.006076388888888887</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9930555555555556</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4009690737811186</v>
+        <v>0.3934726338641609</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4009690737811186</v>
+        <v>0.3934726338641609</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4009690737811186</v>
+        <v>0.3934726338641609</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Frontend</t>
+          <t>Demands</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>v1.9.1</t>
+          <t>v0.1</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2127,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>v0.1</t>
+          <t>v0.2</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2157,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>v0.2</t>
+          <t>v0.3</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2187,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>v0.3</t>
+          <t>v0.4</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2217,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>v0.4</t>
+          <t>v0.4.0</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2247,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>v0.4.0</t>
+          <t>v0.5.0</t>
         </is>
       </c>
     </row>
@@ -2301,13 +2277,13 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>v0.5.0</t>
+          <t>v0.5.1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -2316,13 +2292,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3934726338641609</v>
+        <v>0.4118491864748551</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3934726338641609</v>
+        <v>0.4118491864748551</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3934726338641609</v>
+        <v>0.4118491864748551</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2331,7 +2307,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>v0.5.1</t>
+          <t>v0.5.2</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2337,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>v0.5.2</t>
+          <t>v0.6.0</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2367,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>v0.6.0</t>
+          <t>v0.7.0</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>v0.7.0</t>
+          <t>v0.8.0</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2427,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>v0.8.0</t>
+          <t>v0.9.0</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2457,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>v0.9.0</t>
+          <t>v1.0.0</t>
         </is>
       </c>
     </row>
@@ -2511,28 +2487,28 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>v1.0.0</t>
+          <t>v1.1.0</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4118491864748551</v>
+        <v>0.4049237779100593</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4118491864748551</v>
+        <v>0.4049237779100593</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4118491864748551</v>
+        <v>0.4049237779100593</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2541,28 +2517,28 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>v1.1.0</t>
+          <t>v1.2.0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4049237779100593</v>
+        <v>0.3942892503784359</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4049237779100593</v>
+        <v>0.3942892503784359</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4049237779100593</v>
+        <v>0.3942892503784359</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2571,7 +2547,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>v1.2.0</t>
+          <t>v1.3.0</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2577,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>v1.3.0</t>
+          <t>v1.4.0</t>
         </is>
       </c>
     </row>
@@ -2631,37 +2607,37 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>v1.4.0</t>
+          <t>v1.4.1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.75</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3942892503784359</v>
+        <v>0.42175</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3942892503784359</v>
+        <v>0.42175</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3942892503784359</v>
+        <v>0.42175</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Demands</t>
+          <t>Clients</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>v1.4.1</t>
+          <t>V1.0.0</t>
         </is>
       </c>
     </row>
@@ -2691,28 +2667,28 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>V1.0.0</t>
+          <t>V1.0.1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D76" t="n">
-        <v>0.42175</v>
+        <v>0.395269389151247</v>
       </c>
       <c r="E76" t="n">
-        <v>0.42175</v>
+        <v>0.395269389151247</v>
       </c>
       <c r="F76" t="n">
-        <v>0.42175</v>
+        <v>0.395269389151247</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2721,7 +2697,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>V1.0.1</t>
+          <t>V1.1.0</t>
         </is>
       </c>
     </row>
@@ -2751,28 +2727,28 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>V1.1.0</t>
+          <t>V1.1.1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.395269389151247</v>
+        <v>0.3934726338641609</v>
       </c>
       <c r="E78" t="n">
-        <v>0.395269389151247</v>
+        <v>0.3934726338641609</v>
       </c>
       <c r="F78" t="n">
-        <v>0.395269389151247</v>
+        <v>0.3934726338641609</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2781,7 +2757,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>V1.1.1</t>
+          <t>v0.1</t>
         </is>
       </c>
     </row>
@@ -2811,13 +2787,13 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>v0.1</t>
+          <t>v0.2</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -2826,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3934726338641609</v>
+        <v>0.42175</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3934726338641609</v>
+        <v>0.42175</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3934726338641609</v>
+        <v>0.42175</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2841,7 +2817,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>v0.2</t>
+          <t>v0.3</t>
         </is>
       </c>
     </row>
@@ -2871,13 +2847,13 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>v0.3</t>
+          <t>v0.3.0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -2886,13 +2862,13 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0.42175</v>
+        <v>0.3934726338641609</v>
       </c>
       <c r="E82" t="n">
-        <v>0.42175</v>
+        <v>0.3934726338641609</v>
       </c>
       <c r="F82" t="n">
-        <v>0.42175</v>
+        <v>0.3934726338641609</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2901,28 +2877,28 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>v0.3.0</t>
+          <t>v0.3.1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3934726338641609</v>
+        <v>0.395269389151247</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3934726338641609</v>
+        <v>0.395269389151247</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3934726338641609</v>
+        <v>0.395269389151247</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2930,36 +2906,6 @@
         </is>
       </c>
       <c r="H83" t="inlineStr">
-        <is>
-          <t>v0.3.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.395269389151247</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.395269389151247</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.395269389151247</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Clients</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
         <is>
           <t>v0.3.2</t>
         </is>
